--- a/PERevitTabCodebase/Assets/Excel/K12 Worksets.xlsx
+++ b/PERevitTabCodebase/Assets/Excel/K12 Worksets.xlsx
@@ -239,7 +239,7 @@
     <t>Intended for temporary use, or where 2D CAD is used to document existing conditions. Modify / Duplicate and rename to match model name as necessary. Use only when necessary. NEVER "import" CAD content directly into model.</t>
   </si>
   <si>
-    <t>4-LINK_CAD-FILE</t>
+    <t>4-LINK_CAD-[FILE]</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
